--- a/excels/abilities/hero_innate.xlsx
+++ b/excels/abilities/hero_innate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>名字</t>
   </si>
@@ -217,9 +217,8 @@
   </si>
   <si>
     <t>治疗自身，并伤害周围敌军。
-cd：4秒/4秒/4秒/3秒/2秒
-系数：伤害系数：100%/125%/150%/175%/225%攻击力·光元素伤害
-治疗系数：25%/30%/35%/40%/50%攻击力
+伤害系数：%damage_coefficient%%%攻击力·光元素伤害
+治疗系数：%health_coefficient%%%攻击力
 作用范围：直径260码
 技能类型：范围型/伤害型（英雄5星解锁）</t>
   </si>
@@ -1481,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1740,7 +1739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="132" spans="1:39">
+    <row r="3" customFormat="1" ht="99" spans="1:39">
       <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
@@ -1750,9 +1749,7 @@
       <c r="C3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
         <v>63</v>
       </c>
@@ -1831,9 +1828,7 @@
       <c r="C4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
         <v>63</v>
       </c>
@@ -1910,9 +1905,7 @@
       <c r="C5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>63</v>
       </c>

--- a/excels/abilities/hero_innate.xlsx
+++ b/excels/abilities/hero_innate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>名字</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Disable</t>
+  </si>
+  <si>
+    <t>Rarity</t>
   </si>
   <si>
     <t>Innate</t>
@@ -1478,10 +1481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1490,37 +1493,37 @@
     <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="38.3416666666667" customWidth="1"/>
     <col min="4" max="4" width="10.675" customWidth="1"/>
-    <col min="5" max="6" width="12.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="12.675" customWidth="1"/>
-    <col min="9" max="9" width="18.175" customWidth="1"/>
-    <col min="10" max="10" width="25.8416666666667" customWidth="1"/>
-    <col min="11" max="11" width="24.0083333333333" customWidth="1"/>
-    <col min="12" max="12" width="29.5083333333333" customWidth="1"/>
-    <col min="13" max="13" width="17.175" customWidth="1"/>
-    <col min="14" max="14" width="31.675" customWidth="1"/>
-    <col min="15" max="15" width="36.375" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="21" width="6.24166666666667" customWidth="1"/>
-    <col min="22" max="22" width="8.00833333333333" customWidth="1"/>
-    <col min="23" max="23" width="18.5083333333333" customWidth="1"/>
-    <col min="24" max="24" width="27.175" customWidth="1"/>
-    <col min="25" max="25" width="13.175" customWidth="1"/>
-    <col min="26" max="26" width="39.8416666666667" customWidth="1"/>
-    <col min="27" max="27" width="50.625" customWidth="1"/>
-    <col min="28" max="28" width="21.3416666666667" customWidth="1"/>
-    <col min="29" max="29" width="17.0083333333333" customWidth="1"/>
-    <col min="30" max="30" width="15.175" customWidth="1"/>
-    <col min="31" max="31" width="15.3416666666667" customWidth="1"/>
-    <col min="32" max="32" width="14.5083333333333" customWidth="1"/>
-    <col min="33" max="33" width="15.5083333333333" customWidth="1"/>
-    <col min="34" max="34" width="14.675" customWidth="1"/>
-    <col min="35" max="35" width="15.675" customWidth="1"/>
-    <col min="36" max="36" width="14.8416666666667" customWidth="1"/>
-    <col min="37" max="37" width="17.175" customWidth="1"/>
+    <col min="5" max="7" width="12.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="12.675" customWidth="1"/>
+    <col min="10" max="10" width="18.175" customWidth="1"/>
+    <col min="11" max="11" width="25.8416666666667" customWidth="1"/>
+    <col min="12" max="12" width="24.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="29.5083333333333" customWidth="1"/>
+    <col min="14" max="14" width="17.175" customWidth="1"/>
+    <col min="15" max="15" width="31.675" customWidth="1"/>
+    <col min="16" max="16" width="36.375" customWidth="1"/>
+    <col min="17" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="22" width="6.24166666666667" customWidth="1"/>
+    <col min="23" max="23" width="8.00833333333333" customWidth="1"/>
+    <col min="24" max="24" width="18.5083333333333" customWidth="1"/>
+    <col min="25" max="25" width="27.175" customWidth="1"/>
+    <col min="26" max="26" width="13.175" customWidth="1"/>
+    <col min="27" max="27" width="39.8416666666667" customWidth="1"/>
+    <col min="28" max="28" width="50.625" customWidth="1"/>
+    <col min="29" max="29" width="21.3416666666667" customWidth="1"/>
+    <col min="30" max="30" width="17.0083333333333" customWidth="1"/>
+    <col min="31" max="31" width="15.175" customWidth="1"/>
+    <col min="32" max="32" width="15.3416666666667" customWidth="1"/>
+    <col min="33" max="33" width="14.5083333333333" customWidth="1"/>
+    <col min="34" max="34" width="15.5083333333333" customWidth="1"/>
+    <col min="35" max="35" width="14.675" customWidth="1"/>
+    <col min="36" max="36" width="15.675" customWidth="1"/>
+    <col min="37" max="37" width="14.8416666666667" customWidth="1"/>
+    <col min="38" max="38" width="17.175" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:39">
+    <row r="1" s="1" customFormat="1" ht="39" customHeight="1" spans="1:40">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1535,95 +1538,96 @@
         <v>3</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4">
+      <c r="P1" s="4">
         <v>2</v>
       </c>
-      <c r="P1" s="4">
+      <c r="Q1" s="4">
         <v>3</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="R1" s="4">
         <v>4</v>
       </c>
-      <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="17"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="17"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:38">
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:39">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1648,35 +1652,35 @@
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="10">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <v>2</v>
       </c>
-      <c r="P2" s="10">
+      <c r="Q2" s="10">
         <v>3</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>4</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>41</v>
@@ -1690,28 +1694,28 @@
       <c r="V2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>45</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="10" t="s">
         <v>47</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="AE2" s="10" t="s">
@@ -1732,245 +1736,257 @@
       <c r="AJ2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AK2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AL2" s="19" t="s">
-        <v>44</v>
+      <c r="AL2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="99" spans="1:39">
+    <row r="3" customFormat="1" ht="99" spans="1:40">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
       </c>
       <c r="G3" s="8">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>5</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="8">
         <v>5</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>67</v>
       </c>
+      <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
         <v>68</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="8"/>
+      <c r="Q3" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="12">
-        <v>0</v>
-      </c>
+      <c r="W3" s="8"/>
       <c r="X3" s="12">
         <v>0</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="8" t="str">
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="8" t="str">
         <f>"abilities/innate/"&amp;A3</f>
         <v>abilities/innate/innate_omniknight</v>
       </c>
-      <c r="AA3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB3" s="12"/>
+      <c r="AB3" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="AC3" s="12"/>
-      <c r="AD3" s="8"/>
+      <c r="AD3" s="12"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
-      <c r="AG3" s="20"/>
+      <c r="AG3" s="8"/>
       <c r="AH3" s="20"/>
       <c r="AI3" s="20"/>
       <c r="AJ3" s="20"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="23"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="23"/>
     </row>
-    <row r="4" ht="33" spans="1:39">
+    <row r="4" ht="33" spans="1:40">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>5</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="8">
         <v>6</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="12">
-        <v>0</v>
-      </c>
+      <c r="W4" s="8"/>
       <c r="X4" s="12">
         <v>0</v>
       </c>
-      <c r="Y4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="8" t="str">
+      <c r="Y4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" s="8" t="str">
         <f>"abilities/innate/"&amp;A4</f>
         <v>abilities/innate/innate_abaddon</v>
       </c>
-      <c r="AA4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB4" s="12"/>
+      <c r="AB4" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="AC4" s="12"/>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="12"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
-      <c r="AG4" s="20"/>
+      <c r="AG4" s="8"/>
       <c r="AH4" s="20"/>
       <c r="AI4" s="20"/>
       <c r="AJ4" s="20"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="23"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
     </row>
-    <row r="5" ht="33" spans="1:39">
+    <row r="5" ht="33" spans="1:40">
       <c r="A5" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>5</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="J5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="8">
         <v>3</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="12">
-        <v>0</v>
-      </c>
+      <c r="W5" s="8"/>
       <c r="X5" s="12">
         <v>0</v>
       </c>
-      <c r="Y5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z5" s="8" t="str">
+      <c r="Y5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="8" t="str">
         <f>"abilities/innate/"&amp;A5</f>
         <v>abilities/innate/innate_zuus</v>
       </c>
-      <c r="AA5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB5" s="12"/>
+      <c r="AB5" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="AC5" s="12"/>
-      <c r="AD5" s="8"/>
+      <c r="AD5" s="12"/>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
-      <c r="AG5" s="20"/>
+      <c r="AG5" s="8"/>
       <c r="AH5" s="20"/>
       <c r="AI5" s="20"/>
       <c r="AJ5" s="20"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="23"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A5">
@@ -2002,7 +2018,7 @@
       <formula>NOT(ISERROR(SEARCH("arms_t9",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I5">
+  <conditionalFormatting sqref="J1:J5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2014,7 +2030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K5">
+  <conditionalFormatting sqref="L1:L5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/excels/abilities/hero_innate.xlsx
+++ b/excels/abilities/hero_innate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>名字</t>
   </si>
@@ -224,9 +224,6 @@
 治疗系数：%health_coefficient%%%攻击力
 作用范围：直径260码
 技能类型：范围型/伤害型（英雄5星解锁）</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>4 4 4 3 2</t>
@@ -1484,7 +1481,7 @@
   <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1757,8 +1754,8 @@
         <v>63</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>64</v>
+      <c r="E3" s="8">
+        <v>1</v>
       </c>
       <c r="F3" s="8">
         <v>0</v>
@@ -1773,26 +1770,26 @@
         <v>5</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="L3" s="8">
         <v>5</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -1806,14 +1803,14 @@
         <v>0</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA3" s="8" t="str">
         <f>"abilities/innate/"&amp;A3</f>
         <v>abilities/innate/innate_omniknight</v>
       </c>
       <c r="AB3" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
@@ -1830,17 +1827,17 @@
     </row>
     <row r="4" ht="33" spans="1:40">
       <c r="A4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>64</v>
+      <c r="E4" s="8">
+        <v>2</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -1855,23 +1852,23 @@
         <v>5</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" s="8">
         <v>6</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -1886,14 +1883,14 @@
         <v>0</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA4" s="8" t="str">
         <f>"abilities/innate/"&amp;A4</f>
         <v>abilities/innate/innate_abaddon</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
@@ -1910,17 +1907,17 @@
     </row>
     <row r="5" ht="33" spans="1:40">
       <c r="A5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>64</v>
+      <c r="E5" s="8">
+        <v>3</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -1935,23 +1932,23 @@
         <v>5</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" s="8">
         <v>3</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -1966,14 +1963,14 @@
         <v>0</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA5" s="8" t="str">
         <f>"abilities/innate/"&amp;A5</f>
         <v>abilities/innate/innate_zuus</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
